--- a/test_data/test_data_4.xlsx
+++ b/test_data/test_data_4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qlrqo\Documents\전공 과목\전프 (CS408)\ChatSummarizer\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehgus\Desktop\ChatSummarizer\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1599,18 +1599,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="63.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" customWidth="1"/>
+    <col min="1" max="1" width="63.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.796875" customWidth="1"/>
+    <col min="3" max="3" width="29.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>396</v>
       </c>
@@ -1621,18 +1621,18 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1643,29 +1643,29 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1785,31 +1785,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1913,15 +1913,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1945,23 +1945,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1969,23 +1969,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2009,23 +2009,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2124,25 +2124,26 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="91.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="72.83203125" customWidth="1"/>
+    <col min="1" max="1" width="91.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.296875" customWidth="1"/>
+    <col min="3" max="3" width="72.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>396</v>
       </c>
@@ -2153,7 +2154,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -2164,18 +2165,18 @@
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>62</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -2186,7 +2187,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -2197,7 +2198,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2205,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -2213,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -2221,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -2229,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -2237,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -2245,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -2253,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -2261,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -2269,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -2277,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -2293,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -2301,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -2309,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -2317,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -2325,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -2333,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -2341,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -2349,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -2357,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -2365,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -2373,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -2381,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -2389,15 +2390,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>89</v>
       </c>
       <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -2405,7 +2406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -2413,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -2421,7 +2422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>93</v>
       </c>
@@ -2429,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -2437,15 +2438,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>95</v>
       </c>
       <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>96</v>
       </c>
@@ -2453,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -2461,7 +2462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -2469,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -2477,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -2485,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -2493,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -2501,15 +2502,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>103</v>
       </c>
       <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -2517,7 +2518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -2525,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -2533,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -2541,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>108</v>
       </c>
@@ -2549,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>109</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -2565,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -2573,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -2581,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -2589,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -2597,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>115</v>
       </c>
@@ -2605,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>116</v>
       </c>
@@ -2613,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>117</v>
       </c>
@@ -2621,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -2629,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -2637,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -2645,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>121</v>
       </c>
@@ -2653,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -2661,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>123</v>
       </c>
@@ -2669,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>124</v>
       </c>
@@ -2677,7 +2678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>125</v>
       </c>
@@ -2685,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>126</v>
       </c>
@@ -2693,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -2701,15 +2702,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>128</v>
       </c>
       <c r="B69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>129</v>
       </c>
@@ -2717,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>130</v>
       </c>
@@ -2725,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>131</v>
       </c>
@@ -2733,7 +2734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>132</v>
       </c>
@@ -2741,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>133</v>
       </c>
@@ -2749,11 +2750,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>134</v>
       </c>
       <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B76">
         <v>0</v>
       </c>
     </row>
@@ -2767,18 +2773,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="83.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="50.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" customWidth="1"/>
+    <col min="3" max="3" width="50.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>396</v>
       </c>
@@ -2789,7 +2795,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -2800,7 +2806,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -2811,45 +2817,45 @@
         <v>385</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>137</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>138</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>139</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>140</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>141</v>
       </c>
@@ -2857,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>142</v>
       </c>
@@ -2865,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -2873,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>144</v>
       </c>
@@ -2881,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>145</v>
       </c>
@@ -2889,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>146</v>
       </c>
@@ -2897,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>147</v>
       </c>
@@ -2905,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>148</v>
       </c>
@@ -2913,15 +2919,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>149</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>150</v>
       </c>
@@ -2929,7 +2935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>151</v>
       </c>
@@ -2937,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -2945,23 +2951,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>153</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>154</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>155</v>
       </c>
@@ -2969,15 +2975,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>156</v>
       </c>
       <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>157</v>
       </c>
@@ -2985,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>158</v>
       </c>
@@ -2993,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>159</v>
       </c>
@@ -3001,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>160</v>
       </c>
@@ -3009,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>161</v>
       </c>
@@ -3017,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>162</v>
       </c>
@@ -3025,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>163</v>
       </c>
@@ -3033,7 +3039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>164</v>
       </c>
@@ -3041,7 +3047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>165</v>
       </c>
@@ -3049,63 +3055,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>166</v>
       </c>
       <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>167</v>
       </c>
       <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>168</v>
       </c>
       <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>169</v>
       </c>
       <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>170</v>
       </c>
       <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>171</v>
       </c>
       <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>172</v>
       </c>
       <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>173</v>
       </c>
@@ -3113,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -3121,39 +3127,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>175</v>
       </c>
       <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>176</v>
       </c>
       <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>177</v>
       </c>
       <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>178</v>
       </c>
       <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>179</v>
       </c>
@@ -3161,7 +3167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>180</v>
       </c>
@@ -3169,7 +3175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>181</v>
       </c>
@@ -3177,23 +3183,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>182</v>
       </c>
       <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>183</v>
       </c>
       <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>184</v>
       </c>
@@ -3201,7 +3207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>185</v>
       </c>
@@ -3209,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>186</v>
       </c>
@@ -3217,7 +3223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>187</v>
       </c>
@@ -3225,31 +3231,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>188</v>
       </c>
       <c r="B55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>189</v>
       </c>
       <c r="B56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>190</v>
       </c>
       <c r="B57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>191</v>
       </c>
@@ -3257,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>192</v>
       </c>
@@ -3265,23 +3271,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>193</v>
       </c>
       <c r="B60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>194</v>
       </c>
       <c r="B61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>195</v>
       </c>
@@ -3289,23 +3295,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>196</v>
       </c>
       <c r="B63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>197</v>
       </c>
       <c r="B64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>198</v>
       </c>
@@ -3313,7 +3319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>199</v>
       </c>
@@ -3321,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>200</v>
       </c>
@@ -3329,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>201</v>
       </c>
@@ -3337,7 +3343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>202</v>
       </c>
@@ -3345,7 +3351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>203</v>
       </c>
@@ -3353,7 +3359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>204</v>
       </c>
@@ -3361,7 +3367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>205</v>
       </c>
@@ -3369,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>206</v>
       </c>
@@ -3377,7 +3383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>207</v>
       </c>
@@ -3385,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>208</v>
       </c>
@@ -3393,7 +3399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>209</v>
       </c>
@@ -3401,7 +3407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>210</v>
       </c>
@@ -3409,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>211</v>
       </c>
@@ -3417,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>212</v>
       </c>
@@ -3425,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>213</v>
       </c>
@@ -3433,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>214</v>
       </c>
@@ -3441,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>215</v>
       </c>
@@ -3449,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>213</v>
       </c>
@@ -3457,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>216</v>
       </c>
@@ -3465,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>217</v>
       </c>
@@ -3473,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>218</v>
       </c>
@@ -3481,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>219</v>
       </c>
@@ -3489,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>220</v>
       </c>
@@ -3497,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>221</v>
       </c>
@@ -3505,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>222</v>
       </c>
@@ -3513,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>223</v>
       </c>
@@ -3521,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>223</v>
       </c>
@@ -3529,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>223</v>
       </c>
@@ -3537,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>224</v>
       </c>
@@ -3545,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>225</v>
       </c>
@@ -3553,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>226</v>
       </c>
@@ -3561,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>227</v>
       </c>
@@ -3569,7 +3575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>228</v>
       </c>
@@ -3577,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>229</v>
       </c>
@@ -3585,7 +3591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>230</v>
       </c>
@@ -3593,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>231</v>
       </c>
@@ -3601,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>232</v>
       </c>
@@ -3609,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>233</v>
       </c>
@@ -3617,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>234</v>
       </c>
@@ -3625,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>235</v>
       </c>
@@ -3633,47 +3639,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>236</v>
       </c>
       <c r="B106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>237</v>
       </c>
       <c r="B107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>238</v>
       </c>
       <c r="B108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>239</v>
       </c>
       <c r="B109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>240</v>
       </c>
       <c r="B110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>241</v>
       </c>
@@ -3681,12 +3687,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>243</v>
       </c>
@@ -3694,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>244</v>
       </c>
@@ -3702,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>245</v>
       </c>
@@ -3710,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>246</v>
       </c>
@@ -3718,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>247</v>
       </c>
@@ -3726,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>248</v>
       </c>
@@ -3734,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>249</v>
       </c>
@@ -3742,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>250</v>
       </c>
@@ -3750,7 +3759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>251</v>
       </c>
@@ -3758,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>252</v>
       </c>
@@ -3766,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>253</v>
       </c>
@@ -3774,7 +3783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>254</v>
       </c>
@@ -3782,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>255</v>
       </c>
@@ -3790,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>256</v>
       </c>
@@ -3798,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>257</v>
       </c>
@@ -3806,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>258</v>
       </c>
@@ -3814,7 +3823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>259</v>
       </c>
@@ -3822,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>260</v>
       </c>
@@ -3830,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>261</v>
       </c>
@@ -3838,15 +3847,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>262</v>
       </c>
       <c r="B132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>263</v>
       </c>
@@ -3854,7 +3863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>264</v>
       </c>
@@ -3862,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>265</v>
       </c>
@@ -3870,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>266</v>
       </c>
@@ -3878,7 +3887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>267</v>
       </c>
@@ -3886,7 +3895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>268</v>
       </c>
@@ -3894,7 +3903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>269</v>
       </c>
@@ -3902,7 +3911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>270</v>
       </c>
@@ -3910,7 +3919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>271</v>
       </c>
@@ -3918,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>272</v>
       </c>
@@ -3936,17 +3945,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="143.1640625" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="143.19921875" customWidth="1"/>
+    <col min="3" max="3" width="25.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>396</v>
       </c>
@@ -3957,7 +3966,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>273</v>
       </c>
@@ -3968,18 +3977,18 @@
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>274</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -3990,7 +3999,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>276</v>
       </c>
@@ -4001,7 +4010,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>277</v>
       </c>
@@ -4009,7 +4018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>278</v>
       </c>
@@ -4017,7 +4026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>279</v>
       </c>
@@ -4025,7 +4034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>280</v>
       </c>
@@ -4033,7 +4042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>281</v>
       </c>
@@ -4041,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>282</v>
       </c>
@@ -4049,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>283</v>
       </c>
@@ -4057,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>284</v>
       </c>
@@ -4065,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>285</v>
       </c>
@@ -4073,7 +4082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>286</v>
       </c>
@@ -4081,7 +4090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>287</v>
       </c>
@@ -4089,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>288</v>
       </c>
@@ -4097,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>289</v>
       </c>
@@ -4105,7 +4114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>290</v>
       </c>
@@ -4113,7 +4122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>291</v>
       </c>
@@ -4131,17 +4140,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="105.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="105.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>396</v>
       </c>
@@ -4152,7 +4161,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>292</v>
       </c>
@@ -4163,7 +4172,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>293</v>
       </c>
@@ -4174,7 +4183,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -4185,7 +4194,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>295</v>
       </c>
@@ -4196,7 +4205,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>296</v>
       </c>
@@ -4204,7 +4213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>297</v>
       </c>
@@ -4212,7 +4221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>298</v>
       </c>
@@ -4220,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>299</v>
       </c>
@@ -4228,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>300</v>
       </c>
@@ -4236,7 +4245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>301</v>
       </c>
@@ -4244,7 +4253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>302</v>
       </c>
@@ -4252,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>303</v>
       </c>
@@ -4260,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>304</v>
       </c>
@@ -4268,7 +4277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>305</v>
       </c>
@@ -4276,7 +4285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>306</v>
       </c>
@@ -4284,7 +4293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>307</v>
       </c>
@@ -4292,23 +4301,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>308</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>309</v>
       </c>
       <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>310</v>
       </c>
@@ -4316,7 +4325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>311</v>
       </c>
@@ -4324,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>312</v>
       </c>
@@ -4332,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>313</v>
       </c>
@@ -4340,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>314</v>
       </c>
@@ -4348,15 +4357,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>315</v>
       </c>
       <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>316</v>
       </c>
@@ -4364,15 +4373,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>317</v>
       </c>
       <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>318</v>
       </c>
@@ -4380,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>319</v>
       </c>
@@ -4388,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>320</v>
       </c>
@@ -4396,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>321</v>
       </c>
@@ -4404,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>322</v>
       </c>
@@ -4412,7 +4421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>323</v>
       </c>
@@ -4420,7 +4429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>324</v>
       </c>
@@ -4428,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>325</v>
       </c>
@@ -4436,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>326</v>
       </c>
@@ -4444,15 +4453,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>327</v>
       </c>
       <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>328</v>
       </c>
@@ -4460,7 +4469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>329</v>
       </c>
@@ -4468,7 +4477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>330</v>
       </c>
@@ -4476,7 +4485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>331</v>
       </c>
@@ -4484,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>332</v>
       </c>
@@ -4492,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>333</v>
       </c>
@@ -4500,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>334</v>
       </c>
@@ -4508,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>335</v>
       </c>
@@ -4516,7 +4525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>336</v>
       </c>
@@ -4524,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>337</v>
       </c>
@@ -4532,7 +4541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>338</v>
       </c>
@@ -4540,7 +4549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>339</v>
       </c>
@@ -4548,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>340</v>
       </c>
@@ -4556,7 +4565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>341</v>
       </c>
@@ -4564,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>342</v>
       </c>
@@ -4572,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>343</v>
       </c>
@@ -4595,13 +4604,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="63.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>344</v>
       </c>
@@ -4612,7 +4621,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>345</v>
       </c>
@@ -4626,7 +4635,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>346</v>
       </c>
@@ -4637,7 +4646,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>347</v>
       </c>
@@ -4648,7 +4657,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>348</v>
       </c>
@@ -4656,7 +4665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>349</v>
       </c>
@@ -4664,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>350</v>
       </c>
@@ -4672,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="25.2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>351</v>
       </c>
@@ -4683,7 +4692,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>352</v>
       </c>
@@ -4694,7 +4703,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>353</v>
       </c>
@@ -4705,7 +4714,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>354</v>
       </c>
@@ -4716,7 +4725,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>355</v>
       </c>
@@ -4724,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>356</v>
       </c>
@@ -4732,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>357</v>
       </c>
@@ -4740,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>358</v>
       </c>
@@ -4748,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>359</v>
       </c>
@@ -4756,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>360</v>
       </c>
@@ -4764,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>361</v>
       </c>
@@ -4772,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>362</v>
       </c>
@@ -4780,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>363</v>
       </c>
@@ -4788,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>364</v>
       </c>
@@ -4796,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>365</v>
       </c>
@@ -4804,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>366</v>
       </c>
